--- a/z.ERP/trunk/z.ERP.Web/File/Template/商品销售导出.xlsx
+++ b/z.ERP/trunk/z.ERP.Web/File/Template/商品销售导出.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA89E44-C507-401C-BEF3-63B6C44340D1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F0165E-7FE7-428D-BE6A-FD5CAE1CAF96}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&amp;=GoodsSale.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商品编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,6 +127,10 @@
   </si>
   <si>
     <t>&amp;=GoodsSale.PER_AMOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=GoodsSale.RQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -468,7 +468,8 @@
     <col min="2" max="2" width="10.4140625" customWidth="1"/>
     <col min="4" max="4" width="11.4140625" customWidth="1"/>
     <col min="5" max="5" width="11.25" customWidth="1"/>
-    <col min="6" max="7" width="11.08203125" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="11.08203125" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" customWidth="1"/>
     <col min="9" max="9" width="11.75" customWidth="1"/>
   </cols>
@@ -478,22 +479,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -519,46 +520,46 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>25</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/z.ERP/trunk/z.ERP.Web/File/Template/商品销售导出.xlsx
+++ b/z.ERP/trunk/z.ERP.Web/File/Template/商品销售导出.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F0165E-7FE7-428D-BE6A-FD5CAE1CAF96}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C49489-2783-4A76-83A5-DE9F977CAC5B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,17 +459,17 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
     <col min="2" max="2" width="10.4140625" customWidth="1"/>
     <col min="4" max="4" width="11.4140625" customWidth="1"/>
     <col min="5" max="5" width="11.25" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="11.08203125" customWidth="1"/>
+    <col min="6" max="6" width="10.9140625" customWidth="1"/>
+    <col min="7" max="7" width="16.58203125" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" customWidth="1"/>
     <col min="9" max="9" width="11.75" customWidth="1"/>
   </cols>
